--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2028.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2028.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155880628254061</v>
+        <v>1.172504425048828</v>
       </c>
       <c r="B1">
-        <v>2.359411739215115</v>
+        <v>2.446961164474487</v>
       </c>
       <c r="C1">
-        <v>6.795320016278787</v>
+        <v>6.550660133361816</v>
       </c>
       <c r="D1">
-        <v>2.364646899353567</v>
+        <v>2.064251184463501</v>
       </c>
       <c r="E1">
-        <v>1.221853439670291</v>
+        <v>1.203955292701721</v>
       </c>
     </row>
   </sheetData>
